--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="H2">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="I2">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="J2">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.79856333333333</v>
+        <v>42.31746133333333</v>
       </c>
       <c r="N2">
-        <v>107.39569</v>
+        <v>126.952384</v>
       </c>
       <c r="O2">
-        <v>0.8475880303044928</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="P2">
-        <v>0.8475880303044927</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="Q2">
-        <v>2901.272370240733</v>
+        <v>3529.329186132487</v>
       </c>
       <c r="R2">
-        <v>26111.4513321666</v>
+        <v>31763.96267519238</v>
       </c>
       <c r="S2">
-        <v>0.8058819174816202</v>
+        <v>0.6509464661908687</v>
       </c>
       <c r="T2">
-        <v>0.8058819174816201</v>
+        <v>0.6509464661908687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="H3">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="I3">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="J3">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.674518333333333</v>
+        <v>11.08476666666667</v>
       </c>
       <c r="N3">
-        <v>5.023555</v>
+        <v>33.2543</v>
       </c>
       <c r="O3">
-        <v>0.0396468898107204</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="P3">
-        <v>0.03964688981072039</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="Q3">
-        <v>135.7103001236333</v>
+        <v>924.4833996532556</v>
       </c>
       <c r="R3">
-        <v>1221.3927011127</v>
+        <v>8320.3505968793</v>
       </c>
       <c r="S3">
-        <v>0.03769603916110954</v>
+        <v>0.1705109300716323</v>
       </c>
       <c r="T3">
-        <v>0.03769603916110954</v>
+        <v>0.1705109300716323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="H4">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="I4">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="J4">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09414433333333333</v>
+        <v>0.140061</v>
       </c>
       <c r="N4">
-        <v>0.282433</v>
+        <v>0.420183</v>
       </c>
       <c r="O4">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="P4">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="Q4">
-        <v>7.629869125513332</v>
+        <v>11.681262522937</v>
       </c>
       <c r="R4">
-        <v>68.66882212961998</v>
+        <v>105.131362706433</v>
       </c>
       <c r="S4">
-        <v>0.002119336889591066</v>
+        <v>0.00215448210097006</v>
       </c>
       <c r="T4">
-        <v>0.002119336889591066</v>
+        <v>0.00215448210097006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.04437999999999</v>
+        <v>83.40125033333334</v>
       </c>
       <c r="H5">
-        <v>243.13314</v>
+        <v>250.203751</v>
       </c>
       <c r="I5">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="J5">
-        <v>0.9507943584244697</v>
+        <v>0.9428346765536562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.668579666666667</v>
+        <v>7.750570000000001</v>
       </c>
       <c r="N5">
-        <v>14.005739</v>
+        <v>23.25171</v>
       </c>
       <c r="O5">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="P5">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="Q5">
-        <v>378.3621445656066</v>
+        <v>646.4072287960234</v>
       </c>
       <c r="R5">
-        <v>3405.25930109046</v>
+        <v>5817.665059164211</v>
       </c>
       <c r="S5">
-        <v>0.1050970648921489</v>
+        <v>0.1192227981901851</v>
       </c>
       <c r="T5">
-        <v>0.1050970648921489</v>
+        <v>0.1192227981901851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>8.020941000000001</v>
       </c>
       <c r="I6">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="J6">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.79856333333333</v>
+        <v>42.31746133333333</v>
       </c>
       <c r="N6">
-        <v>107.39569</v>
+        <v>126.952384</v>
       </c>
       <c r="O6">
-        <v>0.8475880303044928</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="P6">
-        <v>0.8475880303044927</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="Q6">
-        <v>95.71272146047669</v>
+        <v>113.1419535414827</v>
       </c>
       <c r="R6">
-        <v>861.4144931442901</v>
+        <v>1018.277581873344</v>
       </c>
       <c r="S6">
-        <v>0.02658597389515451</v>
+        <v>0.02086780545298641</v>
       </c>
       <c r="T6">
-        <v>0.0265859738951545</v>
+        <v>0.02086780545298641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.020941000000001</v>
       </c>
       <c r="I7">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="J7">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.674518333333333</v>
+        <v>11.08476666666667</v>
       </c>
       <c r="N7">
-        <v>5.023555</v>
+        <v>33.2543</v>
       </c>
       <c r="O7">
-        <v>0.0396468898107204</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="P7">
-        <v>0.03964688981072039</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="Q7">
-        <v>4.477070918361667</v>
+        <v>29.63675314403334</v>
       </c>
       <c r="R7">
-        <v>40.29363826525501</v>
+        <v>266.7307782963</v>
       </c>
       <c r="S7">
-        <v>0.001243589031281171</v>
+        <v>0.005466177483325133</v>
       </c>
       <c r="T7">
-        <v>0.00124358903128117</v>
+        <v>0.005466177483325133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>8.020941000000001</v>
       </c>
       <c r="I8">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="J8">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09414433333333333</v>
+        <v>0.140061</v>
       </c>
       <c r="N8">
-        <v>0.282433</v>
+        <v>0.420183</v>
       </c>
       <c r="O8">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="P8">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="Q8">
-        <v>0.2517087143836667</v>
+        <v>0.374473672467</v>
       </c>
       <c r="R8">
-        <v>2.265378429453</v>
+        <v>3.370263052203</v>
       </c>
       <c r="S8">
-        <v>6.991673841967188E-05</v>
+        <v>6.906760489548732E-05</v>
       </c>
       <c r="T8">
-        <v>6.991673841967187E-05</v>
+        <v>6.906760489548732E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8.020941000000001</v>
       </c>
       <c r="I9">
-        <v>0.03136662263340788</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="J9">
-        <v>0.03136662263340787</v>
+        <v>0.03022505171551549</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.668579666666667</v>
+        <v>7.750570000000001</v>
       </c>
       <c r="N9">
-        <v>14.005739</v>
+        <v>23.25171</v>
       </c>
       <c r="O9">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="P9">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="Q9">
-        <v>12.48213402004434</v>
+        <v>20.72228822879</v>
       </c>
       <c r="R9">
-        <v>112.339206180399</v>
+        <v>186.50059405911</v>
       </c>
       <c r="S9">
-        <v>0.003467142968552531</v>
+        <v>0.00382200117430846</v>
       </c>
       <c r="T9">
-        <v>0.003467142968552531</v>
+        <v>0.00382200117430846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="H10">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="I10">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="J10">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.79856333333333</v>
+        <v>42.31746133333333</v>
       </c>
       <c r="N10">
-        <v>107.39569</v>
+        <v>126.952384</v>
       </c>
       <c r="O10">
-        <v>0.8475880303044928</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="P10">
-        <v>0.8475880303044927</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="Q10">
-        <v>6.377955573447778</v>
+        <v>8.728455997895111</v>
       </c>
       <c r="R10">
-        <v>57.40160016103</v>
+        <v>78.556103981056</v>
       </c>
       <c r="S10">
-        <v>0.001771594807803654</v>
+        <v>0.001609868982881278</v>
       </c>
       <c r="T10">
-        <v>0.001771594807803653</v>
+        <v>0.001609868982881278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="H11">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="I11">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="J11">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.674518333333333</v>
+        <v>11.08476666666667</v>
       </c>
       <c r="N11">
-        <v>5.023555</v>
+        <v>33.2543</v>
       </c>
       <c r="O11">
-        <v>0.0396468898107204</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="P11">
-        <v>0.03964688981072039</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="Q11">
-        <v>0.2983360934761111</v>
+        <v>2.286358752355556</v>
       </c>
       <c r="R11">
-        <v>2.685024841285</v>
+        <v>20.5772287712</v>
       </c>
       <c r="S11">
-        <v>8.286835304765102E-05</v>
+        <v>0.0004216940590688622</v>
       </c>
       <c r="T11">
-        <v>8.2868353047651E-05</v>
+        <v>0.0004216940590688622</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="H12">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="I12">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="J12">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09414433333333333</v>
+        <v>0.140061</v>
       </c>
       <c r="N12">
-        <v>0.282433</v>
+        <v>0.420183</v>
       </c>
       <c r="O12">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="P12">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="Q12">
-        <v>0.01677297409677778</v>
+        <v>0.028889168608</v>
       </c>
       <c r="R12">
-        <v>0.150956766871</v>
+        <v>0.260002517472</v>
       </c>
       <c r="S12">
-        <v>4.659002948371664E-06</v>
+        <v>5.328293628845945E-06</v>
       </c>
       <c r="T12">
-        <v>4.659002948371664E-06</v>
+        <v>5.328293628845945E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1781623333333333</v>
+        <v>0.2062613333333333</v>
       </c>
       <c r="H13">
-        <v>0.534487</v>
+        <v>0.618784</v>
       </c>
       <c r="I13">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="J13">
-        <v>0.002090160248213056</v>
+        <v>0.002331743669568637</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.668579666666667</v>
+        <v>7.750570000000001</v>
       </c>
       <c r="N13">
-        <v>14.005739</v>
+        <v>23.25171</v>
       </c>
       <c r="O13">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="P13">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="Q13">
-        <v>0.831765046765889</v>
+        <v>1.598642902293334</v>
       </c>
       <c r="R13">
-        <v>7.485885420893002</v>
+        <v>14.38778612064</v>
       </c>
       <c r="S13">
-        <v>0.0002310380844133795</v>
+        <v>0.0002948523339896511</v>
       </c>
       <c r="T13">
-        <v>0.0002310380844133795</v>
+        <v>0.0002948523339896511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="H14">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="I14">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="J14">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.79856333333333</v>
+        <v>42.31746133333333</v>
       </c>
       <c r="N14">
-        <v>107.39569</v>
+        <v>126.952384</v>
       </c>
       <c r="O14">
-        <v>0.8475880303044928</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="P14">
-        <v>0.8475880303044927</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="Q14">
-        <v>42.31893752457556</v>
+        <v>79.62390048288</v>
       </c>
       <c r="R14">
-        <v>380.8704377211801</v>
+        <v>716.6151043459199</v>
       </c>
       <c r="S14">
-        <v>0.01175486550932137</v>
+        <v>0.01468576432238715</v>
       </c>
       <c r="T14">
-        <v>0.01175486550932136</v>
+        <v>0.01468576432238715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="H15">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="I15">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="J15">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.674518333333333</v>
+        <v>11.08476666666667</v>
       </c>
       <c r="N15">
-        <v>5.023555</v>
+        <v>33.2543</v>
       </c>
       <c r="O15">
-        <v>0.0396468898107204</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="P15">
-        <v>0.03964688981072039</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="Q15">
-        <v>1.979516218912222</v>
+        <v>20.8569306885</v>
       </c>
       <c r="R15">
-        <v>17.81564597021</v>
+        <v>187.7123761965</v>
       </c>
       <c r="S15">
-        <v>0.0005498471438069711</v>
+        <v>0.003846834514789095</v>
       </c>
       <c r="T15">
-        <v>0.000549847143806971</v>
+        <v>0.003846834514789095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="H16">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="I16">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="J16">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09414433333333333</v>
+        <v>0.140061</v>
       </c>
       <c r="N16">
-        <v>0.282433</v>
+        <v>0.420183</v>
       </c>
       <c r="O16">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="P16">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="Q16">
-        <v>0.1112918449695556</v>
+        <v>0.263536676685</v>
       </c>
       <c r="R16">
-        <v>1.001626604726</v>
+        <v>2.371830090165</v>
       </c>
       <c r="S16">
-        <v>3.091336282111657E-05</v>
+        <v>4.860647997184202E-05</v>
       </c>
       <c r="T16">
-        <v>3.091336282111657E-05</v>
+        <v>4.860647997184202E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.182140666666667</v>
+        <v>1.881585</v>
       </c>
       <c r="H17">
-        <v>3.546422</v>
+        <v>5.644755</v>
       </c>
       <c r="I17">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="J17">
-        <v>0.01386860725852685</v>
+        <v>0.02127094711161878</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.668579666666667</v>
+        <v>7.750570000000001</v>
       </c>
       <c r="N17">
-        <v>14.005739</v>
+        <v>23.25171</v>
       </c>
       <c r="O17">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="P17">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="Q17">
-        <v>5.518917879539779</v>
+        <v>14.58335625345</v>
       </c>
       <c r="R17">
-        <v>49.67026091585801</v>
+        <v>131.25020628105</v>
       </c>
       <c r="S17">
-        <v>0.001532981242577399</v>
+        <v>0.002689741794470693</v>
       </c>
       <c r="T17">
-        <v>0.001532981242577399</v>
+        <v>0.002689741794470693</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="H18">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="I18">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="J18">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.79856333333333</v>
+        <v>42.31746133333333</v>
       </c>
       <c r="N18">
-        <v>107.39569</v>
+        <v>126.952384</v>
       </c>
       <c r="O18">
-        <v>0.8475880303044928</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="P18">
-        <v>0.8475880303044927</v>
+        <v>0.6904142182914543</v>
       </c>
       <c r="Q18">
-        <v>5.737435745433333</v>
+        <v>12.49362390838756</v>
       </c>
       <c r="R18">
-        <v>51.6369217089</v>
+        <v>112.442615175488</v>
       </c>
       <c r="S18">
-        <v>0.001593678610593101</v>
+        <v>0.00230431334233081</v>
       </c>
       <c r="T18">
-        <v>0.001593678610593101</v>
+        <v>0.00230431334233081</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="H19">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="I19">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="J19">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.674518333333333</v>
+        <v>11.08476666666667</v>
       </c>
       <c r="N19">
-        <v>5.023555</v>
+        <v>33.2543</v>
       </c>
       <c r="O19">
-        <v>0.0396468898107204</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="P19">
-        <v>0.03964688981072039</v>
+        <v>0.1808492350906109</v>
       </c>
       <c r="Q19">
-        <v>0.2683750532833333</v>
+        <v>3.272618476677778</v>
       </c>
       <c r="R19">
-        <v>2.41537547955</v>
+        <v>29.4535662901</v>
       </c>
       <c r="S19">
-        <v>7.454612147506128E-05</v>
+        <v>0.0006035989617955615</v>
       </c>
       <c r="T19">
-        <v>7.454612147506128E-05</v>
+        <v>0.0006035989617955615</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="H20">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="I20">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="J20">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09414433333333333</v>
+        <v>0.140061</v>
       </c>
       <c r="N20">
-        <v>0.282433</v>
+        <v>0.420183</v>
       </c>
       <c r="O20">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="P20">
-        <v>0.002229017106394016</v>
+        <v>0.002285111223152439</v>
       </c>
       <c r="Q20">
-        <v>0.01508851230333333</v>
+        <v>0.041351002709</v>
       </c>
       <c r="R20">
-        <v>0.13579661073</v>
+        <v>0.372159024381</v>
       </c>
       <c r="S20">
-        <v>4.191112613789632E-06</v>
+        <v>7.626743686204322E-06</v>
       </c>
       <c r="T20">
-        <v>4.191112613789633E-06</v>
+        <v>7.626743686204323E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.16027</v>
+        <v>0.2952356666666667</v>
       </c>
       <c r="H21">
-        <v>0.48081</v>
+        <v>0.885707</v>
       </c>
       <c r="I21">
-        <v>0.001880251435382561</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="J21">
-        <v>0.001880251435382562</v>
+        <v>0.003337580949640955</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.668579666666667</v>
+        <v>7.750570000000001</v>
       </c>
       <c r="N21">
-        <v>14.005739</v>
+        <v>23.25171</v>
       </c>
       <c r="O21">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="P21">
-        <v>0.1105360627783929</v>
+        <v>0.1264514353947823</v>
       </c>
       <c r="Q21">
-        <v>0.7482332631766667</v>
+        <v>2.288244700996667</v>
       </c>
       <c r="R21">
-        <v>6.734099368590001</v>
+        <v>20.59420230897</v>
       </c>
       <c r="S21">
-        <v>0.0002078355907006101</v>
+        <v>0.0004220419018283793</v>
       </c>
       <c r="T21">
-        <v>0.0002078355907006101</v>
+        <v>0.0004220419018283794</v>
       </c>
     </row>
   </sheetData>
